--- a/Doc/AbstractKeywords.xlsx
+++ b/Doc/AbstractKeywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="AbstractKeywords" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> LocName</t>
-  </si>
-  <si>
     <t>同期</t>
   </si>
   <si>
@@ -122,6 +119,10 @@
   </si>
   <si>
     <t>最多</t>
+  </si>
+  <si>
+    <t>NameLoc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1064,7 +1065,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1074,177 +1075,177 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
